--- a/biology/Botanique/Plumbago_zeylanica/Plumbago_zeylanica.xlsx
+++ b/biology/Botanique/Plumbago_zeylanica/Plumbago_zeylanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plumbago zeylanica est une espèce de plante herbacée ou buissonnante, à répartition pantropicale et appartenant au groupe des Dentelaires (Plumbaginaceae). 
 Carl von Linné a distingué l'espèce paléotropicale sous le nom de P. zeylanica de celle néotropicale sous le nom de P. scandens, mais elles sont aujourd'hui considérés comme désignant un même taxon.
-Cette espèce est connue sous les noms de plombago de Ceylan en français, pervenche à fleurs blanches à La Réunion[2], ou en anglais Ceylon leadwort, doctorbush[3] ou wild leadwort[4].
+Cette espèce est connue sous les noms de plombago de Ceylan en français, pervenche à fleurs blanches à La Réunion, ou en anglais Ceylon leadwort, doctorbush ou wild leadwort.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses tiges glabres sont prostrées, grimpantes, ou érigées. Les feuilles, pétiolées ou sessiles, sont de forme ovale, elliptique-lancéolée, ou spatulée à oblancéolé et mesurent de 5-9 centimètres de long pour 2,5-4 centimètres de large. Les inflorescences mesurent 3-15 centimètres de long et l'axe principal et les calices sont couvertes de glandes sécrétant un exsudat visqueux. Les bractées lancéolées mesurent 3-7 millimètres de long pour 1-2 millimètres de large. Le fleurs portent une blanche corolle hétérostylées  d'un diamètre de 17-33 millimètres porté au bout d'un tube long de 12,5–28 millimètres. Les fruits sont des capsules longues de 7,5–8 millimètres, contenant des graines brun rougeâtre à brun foncé.
 </t>
